--- a/国.xlsx
+++ b/国.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OWNER\Documents\NIJIIROEHAGAKI\バンドスコア\地球-まる-\haoプログラム\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E445BA8-088D-4EF4-98AE-3F914B97AD18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC5D6207-3CB8-444D-9621-3070BBCED2A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -377,10 +377,13 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="21.875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">

--- a/国.xlsx
+++ b/国.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OWNER\Documents\NIJIIROEHAGAKI\バンドスコア\地球-まる-\haoプログラム\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC5D6207-3CB8-444D-9621-3070BBCED2A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D46F7E7-9B45-4170-A9B3-22D6687EA124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -109,6 +109,212 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>619124</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2990849" cy="478721"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="テキスト ボックス 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0F985CA-4794-9B91-7359-A00A38CDE127}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2971799" y="7953375"/>
+          <a:ext cx="2990849" cy="478721"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900">
+              <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" tooltip="https://www.flickr.com/photos/monana7/2489842151"/>
+            </a:rPr>
+            <a:t>この写真</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900"/>
+            <a:t> の作成者 不明な作成者 は </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900">
+              <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2" tooltip="https://creativecommons.org/licenses/by-nc/3.0/"/>
+            </a:rPr>
+            <a:t>CC BY-NC</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900"/>
+            <a:t> のライセンスを許諾されています</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1468633</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1041" name="図 1040">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BB63C02-3943-4CA0-ADBA-6272BE28C97F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{837473B0-CC2E-450A-ABE3-18F120FF3D39}">
+              <a1611:picAttrSrcUrl xmlns:a1611="http://schemas.microsoft.com/office/drawing/2016/11/main" r:id="rId1"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2352675" y="285750"/>
+          <a:ext cx="1619251" cy="1421008"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>600074</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2990849" cy="478721"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1042" name="テキスト ボックス 1041">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53E4F93E-30D7-4D25-8FD7-9335DCEBBC7B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2914649" y="9201150"/>
+          <a:ext cx="2990849" cy="478721"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900">
+              <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" tooltip="https://www.flickr.com/photos/monana7/2489842151"/>
+            </a:rPr>
+            <a:t>この写真</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900"/>
+            <a:t> の作成者 不明な作成者 は </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900">
+              <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2" tooltip="https://creativecommons.org/licenses/by-nc/3.0/"/>
+            </a:rPr>
+            <a:t>CC BY-NC</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900"/>
+            <a:t> のライセンスを許諾されています</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -376,13 +582,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="21.875" customWidth="1"/>
+    <col min="2" max="2" width="8.5" customWidth="1"/>
+    <col min="3" max="3" width="21.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -393,7 +601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" ht="118.5" customHeight="1">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -412,5 +620,6 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/国.xlsx
+++ b/国.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OWNER\Documents\NIJIIROEHAGAKI\バンドスコア\地球-まる-\haoプログラム\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D46F7E7-9B45-4170-A9B3-22D6687EA124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BCF0D23-6DC2-4FA7-A5A0-6559D6AD6764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -187,59 +187,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>1468633</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="1041" name="図 1040">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BB63C02-3943-4CA0-ADBA-6272BE28C97F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-            <a:ext uri="{837473B0-CC2E-450A-ABE3-18F120FF3D39}">
-              <a1611:picAttrSrcUrl xmlns:a1611="http://schemas.microsoft.com/office/drawing/2016/11/main" r:id="rId1"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2352675" y="285750"/>
-          <a:ext cx="1619251" cy="1421008"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -314,6 +261,56 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1044" name="図 1043">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C984BCA-9CD4-F243-1E26-5F6A5176F4C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2314575" y="247650"/>
+          <a:ext cx="1657350" cy="1495425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -582,8 +579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5:F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>

--- a/国.xlsx
+++ b/国.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OWNER\Documents\NIJIIROEHAGAKI\バンドスコア\地球-まる-\haoプログラム\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BCF0D23-6DC2-4FA7-A5A0-6559D6AD6764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{901B16EB-9152-44E1-8798-C02F6ACB5D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>国</t>
     <rPh sb="0" eb="1">
@@ -38,10 +38,6 @@
     <rPh sb="0" eb="2">
       <t>ジンコウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アメリカ</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -263,16 +259,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -301,8 +297,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2314575" y="247650"/>
-          <a:ext cx="1657350" cy="1495425"/>
+          <a:off x="9525" y="238126"/>
+          <a:ext cx="1657350" cy="1504950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -580,7 +576,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -599,16 +595,13 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="118.5" customHeight="1">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
       <c r="B2">
         <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>2000</v>

--- a/国.xlsx
+++ b/国.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OWNER\Documents\NIJIIROEHAGAKI\バンドスコア\地球-まる-\haoプログラム\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{901B16EB-9152-44E1-8798-C02F6ACB5D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0228642B-3190-4D0A-BD2A-004910DD2543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>国</t>
     <rPh sb="0" eb="1">
@@ -34,16 +34,27 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>人口</t>
-    <rPh sb="0" eb="2">
-      <t>ジンコウ</t>
-    </rPh>
+    <t>アメリカ</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>日本</t>
     <rPh sb="0" eb="2">
       <t>ニホン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>説明</t>
+    <rPh sb="0" eb="2">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画像</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -259,16 +270,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -297,8 +308,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9525" y="238126"/>
-          <a:ext cx="1657350" cy="1504950"/>
+          <a:off x="2314575" y="238125"/>
+          <a:ext cx="1657350" cy="790575"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -573,10 +584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -586,20 +597,26 @@
     <col min="3" max="3" width="21.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="62.25" customHeight="1">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="118.5" customHeight="1">
       <c r="B2">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>2</v>
       </c>

--- a/国.xlsx
+++ b/国.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OWNER\Documents\NIJIIROEHAGAKI\バンドスコア\地球-まる-\haoプログラム\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0228642B-3190-4D0A-BD2A-004910DD2543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A67C8773-E9E0-4F80-8672-4D4E6C22D926}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,13 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>国</t>
-    <rPh sb="0" eb="1">
-      <t>クニ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>アメリカ</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -45,17 +38,15 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>説明</t>
-    <rPh sb="0" eb="2">
-      <t>セツメイ</t>
-    </rPh>
+    <t>Country</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>画像</t>
-    <rPh sb="0" eb="2">
-      <t>ガゾウ</t>
-    </rPh>
+    <t>Description</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Image</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -587,19 +578,19 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="21.875" customWidth="1"/>
-    <col min="2" max="2" width="8.5" customWidth="1"/>
+    <col min="2" max="2" width="20.875" customWidth="1"/>
     <col min="3" max="3" width="21.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -610,7 +601,7 @@
     </row>
     <row r="2" spans="1:3" ht="62.25" customHeight="1">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>100</v>
@@ -618,7 +609,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>2000</v>

--- a/国.xlsx
+++ b/国.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OWNER\Documents\NIJIIROEHAGAKI\バンドスコア\地球-まる-\haoプログラム\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A67C8773-E9E0-4F80-8672-4D4E6C22D926}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F615CF6-0EF5-47AA-8592-19196EE50CBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,6 +27,20 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
+    <t>国</t>
+    <rPh sb="0" eb="1">
+      <t>クニ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>人口</t>
+    <rPh sb="0" eb="2">
+      <t>ジンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>アメリカ</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -38,15 +52,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Country</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Description</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Image</t>
+    <t>画像</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -590,10 +599,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>4</v>
@@ -601,7 +610,7 @@
     </row>
     <row r="2" spans="1:3" ht="62.25" customHeight="1">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B2">
         <v>100</v>
@@ -609,7 +618,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>2000</v>

--- a/国.xlsx
+++ b/国.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OWNER\Documents\NIJIIROEHAGAKI\バンドスコア\地球-まる-\haoプログラム\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F615CF6-0EF5-47AA-8592-19196EE50CBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7DF4A67-D19C-4F1E-B79B-679A96F1F6C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>国</t>
     <rPh sb="0" eb="1">
@@ -56,6 +56,14 @@
     <rPh sb="0" eb="2">
       <t>ガゾウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カナダ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -584,10 +592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -624,6 +632,22 @@
         <v>2000</v>
       </c>
     </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>300</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/国.xlsx
+++ b/国.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OWNER\Documents\NIJIIROEHAGAKI\バンドスコア\地球-まる-\haoプログラム\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E445BA8-088D-4EF4-98AE-3F914B97AD18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F134BA92-3233-4B07-B058-C31E5FCCACF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>国</t>
     <rPh sb="0" eb="1">
@@ -49,6 +49,21 @@
     <rPh sb="0" eb="2">
       <t>ニホン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画像</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カナダ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -109,6 +124,209 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>619124</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2990849" cy="478721"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="テキスト ボックス 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0F985CA-4794-9B91-7359-A00A38CDE127}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2971799" y="7953375"/>
+          <a:ext cx="2990849" cy="478721"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900">
+              <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" tooltip="https://www.flickr.com/photos/monana7/2489842151"/>
+            </a:rPr>
+            <a:t>この写真</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900"/>
+            <a:t> の作成者 不明な作成者 は </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900">
+              <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2" tooltip="https://creativecommons.org/licenses/by-nc/3.0/"/>
+            </a:rPr>
+            <a:t>CC BY-NC</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900"/>
+            <a:t> のライセンスを許諾されています</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>600074</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2990849" cy="478721"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1042" name="テキスト ボックス 1041">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53E4F93E-30D7-4D25-8FD7-9335DCEBBC7B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2914649" y="9201150"/>
+          <a:ext cx="2990849" cy="478721"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900">
+              <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" tooltip="https://www.flickr.com/photos/monana7/2489842151"/>
+            </a:rPr>
+            <a:t>この写真</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900"/>
+            <a:t> の作成者 不明な作成者 は </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900">
+              <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2" tooltip="https://creativecommons.org/licenses/by-nc/3.0/"/>
+            </a:rPr>
+            <a:t>CC BY-NC</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900"/>
+            <a:t> のライセンスを許諾されています</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1044" name="図 1043">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C984BCA-9CD4-F243-1E26-5F6A5176F4C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2314575" y="238125"/>
+          <a:ext cx="1657350" cy="790575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -374,23 +592,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="21.875" customWidth="1"/>
+    <col min="2" max="2" width="20.875" customWidth="1"/>
+    <col min="3" max="3" width="21.75" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3" ht="62.25" customHeight="1">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -398,16 +624,33 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3">
         <v>2000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>300</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/国.xlsx
+++ b/国.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OWNER\Documents\NIJIIROEHAGAKI\バンドスコア\地球-まる-\haoプログラム\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7DF4A67-D19C-4F1E-B79B-679A96F1F6C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F134BA92-3233-4B07-B058-C31E5FCCACF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/国.xlsx
+++ b/国.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OWNER\Documents\NIJIIROEHAGAKI\バンドスコア\地球-まる-\haoプログラム\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OWNER\Documents\haoプログラム\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F134BA92-3233-4B07-B058-C31E5FCCACF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA52ACEB-D36F-4FCF-9D0F-A192DEBAB223}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/国.xlsx
+++ b/国.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OWNER\Documents\haoプログラム\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA52ACEB-D36F-4FCF-9D0F-A192DEBAB223}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F87D3A82-B0E7-4E48-B91A-4C798127FE95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>国</t>
     <rPh sb="0" eb="1">
@@ -64,6 +64,10 @@
   </si>
   <si>
     <t>カナダ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://external-content.duckduckgo.com/iu/?u=https%3A%2F%2Ftse1.mm.bing.net%2Fth%3Fid%3DOIP.-fvHsCMiSAkWtCaNnVP3UgHaFj%26pid%3DApi&amp;f=1&amp;ipt=2b52758d8b2b6d7c3275fdf083a02217dc30e901b18cf2f017b6b732ba023c00&amp;ipo=images</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -71,7 +75,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,6 +88,14 @@
       <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -104,13 +116,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -278,16 +293,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -316,7 +331,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2314575" y="238125"/>
+          <a:off x="5476875" y="1733550"/>
           <a:ext cx="1657350" cy="790575"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -595,7 +610,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -623,6 +638,9 @@
       <c r="B2">
         <v>100</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
@@ -650,7 +668,10 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{65B551BC-1B6C-4CB9-A360-6BB21FE12919}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>